--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-ext-is-archived.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-ext-is-archived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T09:45:47+00:00</t>
+    <t>2024-05-03T11:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-ext-is-archived.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-ext-is-archived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:27:24+00:00</t>
+    <t>2024-05-03T11:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-ext-is-archived.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-ext-is-archived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:29:30+00:00</t>
+    <t>2024-05-03T11:45:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-ext-is-archived.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-ext-is-archived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:45:56+00:00</t>
+    <t>2024-05-03T11:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-ext-is-archived.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-ext-is-archived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:56:06+00:00</t>
+    <t>2024-05-03T11:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-ext-is-archived.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-ext-is-archived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T11:59:52+00:00</t>
+    <t>2024-05-03T12:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-resource-schema/ig/StructureDefinition-pdsm-ext-is-archived.xlsx
+++ b/nr-add-resource-schema/ig/StructureDefinition-pdsm-ext-is-archived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T12:59:12+00:00</t>
+    <t>2024-05-28T07:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
